--- a/src/Erc.Households.Reports/Templates/turnover_balance_sheet.xlsx
+++ b/src/Erc.Households.Reports/Templates/turnover_balance_sheet.xlsx
@@ -589,7 +589,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,7 +891,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
@@ -902,8 +902,8 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
-      <c r="G26" s="4" t="s">
-        <v>26</v>
+      <c r="G26" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -938,8 +938,8 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
-      <c r="G29" s="4" t="s">
-        <v>29</v>
+      <c r="G29" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -950,8 +950,8 @@
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
-      <c r="G30" s="4" t="s">
-        <v>30</v>
+      <c r="G30" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,11 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -1060,18 +1064,14 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B22:F22"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
     <mergeCell ref="B28:F28"/>

--- a/src/Erc.Households.Reports/Templates/turnover_balance_sheet.xlsx
+++ b/src/Erc.Households.Reports/Templates/turnover_balance_sheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>Борг на початок періоду</t>
   </si>
@@ -36,15 +36,6 @@
     <t>Нарахування поточного періоду</t>
   </si>
   <si>
-    <t>Спожито електроенергії, грн.</t>
-  </si>
-  <si>
-    <t>Від'ємне коригування нарахування, грн.</t>
-  </si>
-  <si>
-    <t>Позитивне коригування нарахування, грн.</t>
-  </si>
-  <si>
     <t>Всього нараховано в поточному місяці, грн.</t>
   </si>
   <si>
@@ -163,6 +154,9 @@
   </si>
   <si>
     <t>Обігово-сальдова відомість за {{PeriodName}}</t>
+  </si>
+  <si>
+    <t>Спожито, грн.</t>
   </si>
 </sst>
 </file>
@@ -293,17 +287,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -589,7 +583,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,28 +592,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="A1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
@@ -635,87 +629,87 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="B5" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+      <c r="B8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H8" s="1"/>
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H9" s="1"/>
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -743,101 +737,101 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="B13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="9" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
@@ -849,109 +843,109 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="4" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="8" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -964,7 +958,7 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -973,89 +967,95 @@
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="B33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="4" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="4" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -1064,22 +1064,16 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/Erc.Households.Reports/Templates/turnover_balance_sheet.xlsx
+++ b/src/Erc.Households.Reports/Templates/turnover_balance_sheet.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Борг на початок періоду</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Нарахування поточного періоду</t>
   </si>
   <si>
-    <t>Всього нараховано в поточному місяці, грн.</t>
-  </si>
-  <si>
     <t>Сплачено в поточному періоді</t>
   </si>
   <si>
@@ -126,24 +123,9 @@
     <t>{{TotalAmountDueSum}}</t>
   </si>
   <si>
-    <t>{{RecalculationAmountDuePlus}}</t>
-  </si>
-  <si>
-    <t>{{TaxRecalculationAmountDuePlus}}</t>
-  </si>
-  <si>
-    <t>{{TaxRecalculationAmountDueMinus}}</t>
-  </si>
-  <si>
-    <t>{{RecalculationAmountDueMinus}}</t>
-  </si>
-  <si>
     <t>{{UsedUnitsSum}}</t>
   </si>
   <si>
-    <t>{{UsedAmountDueSum}}</t>
-  </si>
-  <si>
     <t>{{TaxTotalAmountDueSum}}</t>
   </si>
   <si>
@@ -156,27 +138,19 @@
     <t>Обігово-сальдова відомість за {{PeriodName}}</t>
   </si>
   <si>
-    <t>Спожито, грн.</t>
+    <t>Нараховано в поточному місяці, грн.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -244,41 +218,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -287,17 +244,17 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,7 +537,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H1"/>
@@ -592,124 +549,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="A1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="A2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
       <c r="G5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+      <c r="B6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="B8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="B10" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1"/>
     </row>
@@ -725,337 +682,265 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="8" t="s">
+      <c r="B13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7" t="s">
-        <v>40</v>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="12" t="s">
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="5" t="s">
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="8" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="8" t="s">
-        <v>22</v>
+      <c r="B29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="8" t="s">
-        <v>23</v>
+      <c r="B30" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="3"/>
+      <c r="B31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="3"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="B33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
       <c r="G33" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B33:F33"/>
-    <mergeCell ref="B34:F34"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B25:F25"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
+  <mergeCells count="29">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -1064,16 +949,22 @@
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="B22:F22"/>
     <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B20:F20"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B25:F25"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
